--- a/artfynd/A 8503-2019.xlsx
+++ b/artfynd/A 8503-2019.xlsx
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74691146</v>
+        <v>82883467</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>95525</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,41 +1058,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
+          <t>Holmtjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489647.9100812326</v>
+        <v>489447.1889090774</v>
       </c>
       <c r="R5" t="n">
-        <v>6631282.907482301</v>
+        <v>6631386.069839812</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1145,33 +1145,32 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>låga av gran</t>
+          <t>Äldre tallskog, lavtyp</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Henrik Josefsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Tommy Pettersson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82883467</v>
+        <v>82883420</v>
       </c>
       <c r="B6" t="n">
-        <v>95525</v>
+        <v>90645</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,25 +1179,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221941</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1207,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489447.1889090774</v>
+        <v>489475.2312818346</v>
       </c>
       <c r="R6" t="n">
-        <v>6631386.069839812</v>
+        <v>6631504.175627257</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1267,7 +1266,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Äldre tallskog, lavtyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1289,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82883420</v>
+        <v>82883414</v>
       </c>
       <c r="B7" t="n">
-        <v>90645</v>
+        <v>90697</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1305,21 +1304,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1329,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489475.2312818346</v>
+        <v>489442.8430217677</v>
       </c>
       <c r="R7" t="n">
-        <v>6631504.175627257</v>
+        <v>6631274.934289954</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1388,7 +1387,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre barrskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1410,10 +1409,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82883414</v>
+        <v>82883445</v>
       </c>
       <c r="B8" t="n">
-        <v>90697</v>
+        <v>94764</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,25 +1421,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>2326</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vanlig rörsvepemossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Liochlaena lanceolata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Nees</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1450,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489442.8430217677</v>
+        <v>489568.0120379663</v>
       </c>
       <c r="R8" t="n">
-        <v>6631274.934289954</v>
+        <v>6631356.056138818</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1509,7 +1508,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Äldre barrskog, lav-ristyp</t>
+          <t>Blandsumpskog</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Murken klenved</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1531,10 +1535,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82883445</v>
+        <v>82883429</v>
       </c>
       <c r="B9" t="n">
-        <v>94764</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,25 +1547,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2326</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vanlig rörsvepemossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Liochlaena lanceolata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nees</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1571,10 +1575,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489568.0120379663</v>
+        <v>489400.1580363552</v>
       </c>
       <c r="R9" t="n">
-        <v>6631356.056138818</v>
+        <v>6631499.862790138</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1630,12 +1634,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Blandsumpskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Murken klenved</t>
+          <t>Grankvist</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1657,10 +1661,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82883429</v>
+        <v>82883417</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1669,25 +1673,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1697,10 +1701,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489400.1580363552</v>
+        <v>489516.9242719654</v>
       </c>
       <c r="R10" t="n">
-        <v>6631499.862790138</v>
+        <v>6631461.813275921</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1751,17 +1755,18 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrfuktskog</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Grankvist</t>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1783,10 +1788,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82883417</v>
+        <v>74691146</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1795,41 +1800,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Vstm</t>
+          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489516.9242719654</v>
+        <v>489647.9100812326</v>
       </c>
       <c r="R11" t="n">
-        <v>6631461.813275921</v>
+        <v>6631282.907482301</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1853,7 +1858,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1863,7 +1868,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1877,36 +1882,31 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Barrfuktskog</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Liggande granstam</t>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Henrik Josefsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Länsstyrelsen i Örebro län, inventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 8503-2019.xlsx
+++ b/artfynd/A 8503-2019.xlsx
@@ -1046,10 +1046,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>82883467</v>
+        <v>74691146</v>
       </c>
       <c r="B5" t="n">
-        <v>95525</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,41 +1058,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Vstm</t>
+          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489447.1889090774</v>
+        <v>489647.9100812326</v>
       </c>
       <c r="R5" t="n">
-        <v>6631386.069839812</v>
+        <v>6631282.907482301</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1145,32 +1145,33 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Äldre tallskog, lavtyp</t>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>låga av gran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Henrik Josefsson</t>
+          <t>Sebastian Kirppu</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tommy Pettersson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Länsstyrelsen i Örebro län, inventering</t>
-        </is>
-      </c>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82883420</v>
+        <v>82883467</v>
       </c>
       <c r="B6" t="n">
-        <v>90645</v>
+        <v>95525</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1180,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1207,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489475.2312818346</v>
+        <v>489447.1889090774</v>
       </c>
       <c r="R6" t="n">
-        <v>6631504.175627257</v>
+        <v>6631386.069839812</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Äldre tallskog, lavtyp</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1288,10 +1289,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82883414</v>
+        <v>82883420</v>
       </c>
       <c r="B7" t="n">
-        <v>90697</v>
+        <v>90645</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,21 +1305,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1328,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489442.8430217677</v>
+        <v>489475.2312818346</v>
       </c>
       <c r="R7" t="n">
-        <v>6631274.934289954</v>
+        <v>6631504.175627257</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1387,7 +1388,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Äldre barrskog, lav-ristyp</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1409,10 +1410,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82883445</v>
+        <v>82883414</v>
       </c>
       <c r="B8" t="n">
-        <v>94764</v>
+        <v>90697</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1421,25 +1422,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2326</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vanlig rörsvepemossa</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Liochlaena lanceolata</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nees</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1449,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489568.0120379663</v>
+        <v>489442.8430217677</v>
       </c>
       <c r="R8" t="n">
-        <v>6631356.056138818</v>
+        <v>6631274.934289954</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1508,12 +1509,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Blandsumpskog</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Murken klenved</t>
+          <t>Äldre barrskog, lav-ristyp</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1535,10 +1531,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82883429</v>
+        <v>82883445</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>94764</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1547,25 +1543,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2326</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vanlig rörsvepemossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Liochlaena lanceolata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nees</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1575,10 +1571,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489400.1580363552</v>
+        <v>489568.0120379663</v>
       </c>
       <c r="R9" t="n">
-        <v>6631499.862790138</v>
+        <v>6631356.056138818</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1634,12 +1630,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Blandsumpskog</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Grankvist</t>
+          <t>Murken klenved</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1661,10 +1657,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82883417</v>
+        <v>82883429</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1673,25 +1669,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1701,10 +1697,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489516.9242719654</v>
+        <v>489400.1580363552</v>
       </c>
       <c r="R10" t="n">
-        <v>6631461.813275921</v>
+        <v>6631499.862790138</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1755,18 +1751,17 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Barrfuktskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Liggande granstam</t>
+          <t>Grankvist</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1788,10 +1783,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74691146</v>
+        <v>82883417</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1800,41 +1795,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>skogarna kring Holmtjärnsmossen, Holmtjärn och Sörgårdarna, Vstm</t>
+          <t>Holmtjärnen, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489647.9100812326</v>
+        <v>489516.9242719654</v>
       </c>
       <c r="R11" t="n">
-        <v>6631282.907482301</v>
+        <v>6631461.813275921</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1858,7 +1853,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1868,7 +1863,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1882,31 +1877,36 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>Barrfuktskog</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>låga av gran</t>
+          <t>Liggande granstam</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Henrik Josefsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Tommy Pettersson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Örebro län, inventering</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
